--- a/src/main/resources/test.data.xlsx
+++ b/src/main/resources/test.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzegorz.chlopek\IdeaProjects\wave\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{344845D8-413B-44B9-85EE-6D7C8BFF9496}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80E4BF03-912F-4267-91EA-5C73C89E02C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5088" xr2:uid="{BE559ACA-8EE6-43F8-A167-1E5A22309410}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="259">
   <si>
     <t>Invoice number</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>678853465</t>
+  </si>
+  <si>
+    <t>3620474403</t>
   </si>
 </sst>
 </file>
@@ -1222,14 +1225,14 @@
   </sheetPr>
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="36.21875" style="7" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="7" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="7"/>
@@ -1297,8 +1300,8 @@
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7">
-        <v>3620474403</v>
+      <c r="B2" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>196</v>
@@ -2815,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C720700-1F8C-4A8A-BA2F-8D693EEF8EA8}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
